--- a/feather/微习惯新世界.xlsx
+++ b/feather/微习惯新世界.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\feather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A654D0-7DDD-4BDD-8963-73E57398F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CE0A62-8AFD-4F59-9486-04D0051A3F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>打卡表🎯</t>
   </si>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -721,8 +721,12 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1589,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A028058B-1E64-49A6-B141-807527D08F58}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/feather/微习惯新世界.xlsx
+++ b/feather/微习惯新世界.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\feather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CE0A62-8AFD-4F59-9486-04D0051A3F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D8D9B-587D-43CE-BA61-01F4A0F78F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
   <si>
     <t>打卡表🎯</t>
   </si>
@@ -126,39 +126,12 @@
     <t>饮食控制</t>
   </si>
   <si>
-    <t>✅169.3</t>
-  </si>
-  <si>
-    <t>✅169.1</t>
-  </si>
-  <si>
-    <t>✅84.5kg</t>
-  </si>
-  <si>
-    <t>✅85.1kg</t>
-  </si>
-  <si>
     <t>俯卧撑</t>
   </si>
   <si>
-    <t>✅20</t>
-  </si>
-  <si>
-    <t>✅100</t>
-  </si>
-  <si>
-    <t>✅100（15x6+10）</t>
-  </si>
-  <si>
-    <t>✅60个（15x4）</t>
-  </si>
-  <si>
     <t>骑行</t>
   </si>
   <si>
-    <t>✅17km</t>
-  </si>
-  <si>
     <t>胸</t>
   </si>
   <si>
@@ -177,21 +150,12 @@
     <t>Android</t>
   </si>
   <si>
-    <t>✅Java</t>
-  </si>
-  <si>
     <t>数据结构💥</t>
   </si>
   <si>
     <t>动态规划</t>
   </si>
   <si>
-    <t>✅一道题</t>
-  </si>
-  <si>
-    <t>✅研究题目</t>
-  </si>
-  <si>
     <t>兴趣🎯</t>
   </si>
   <si>
@@ -271,18 +235,6 @@
   </si>
   <si>
     <t>文明6</t>
-  </si>
-  <si>
-    <t>✅168.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✅15全程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>✅8.5km</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>✅10min</t>
@@ -299,6 +251,21 @@
   <si>
     <t>✅3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🥇5min</t>
+  </si>
+  <si>
+    <t>✅4题</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Framework</t>
   </si>
 </sst>
 </file>
@@ -382,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -402,6 +369,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,6 +385,5365 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>饮食和健身!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>饮食控制</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>饮食和健身!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>饮食和健身!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB7E-4007-808C-3ED4CD703DD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="663849184"/>
+        <c:axId val="663842704"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="663849184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663842704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="663842704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663849184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>饮食和健身!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>俯卧撑</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent6"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>饮食和健身!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>饮食和健身!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7DC-435F-BE87-6BEEC0A3016A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="663097720"/>
+        <c:axId val="663099880"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="663097720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663099880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="663099880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="663097720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>肩膀</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>手臂</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>饮食和健身!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>肩膀</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>饮食和健身!$C$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>饮食和健身!$C$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01C1-4E7E-998A-E6C8612CDEF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>饮食和健身!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>手臂</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>饮食和健身!$C$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>饮食和健身!$C$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01C1-4E7E-998A-E6C8612CDEF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="712064280"/>
+        <c:axId val="712061040"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="712064280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712061040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="712061040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="712064280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Android</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>事业发展!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>事业发展!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>事业发展!$B$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9AC-4334-A815-938852CAD902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>事业发展!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>事业发展!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>事业发展!$B$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9AC-4334-A815-938852CAD902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>事业发展!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>事业发展!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>事业发展!$B$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E9AC-4334-A815-938852CAD902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>事业发展!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Framework</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>事业发展!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>事业发展!$B$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E9AC-4334-A815-938852CAD902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>事业发展!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>动态规划</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>事业发展!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>45272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45270</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45262</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>事业发展!$B$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E9AC-4334-A815-938852CAD902}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="651083752"/>
+        <c:axId val="651086992"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>事业发展!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>事业发展!$B$1:$O$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>45272</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45271</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45270</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45269</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45268</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45267</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45266</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45265</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45264</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45263</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45262</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45261</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45260</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45259</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>事业发展!$B$6:$O$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E9AC-4334-A815-938852CAD902}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>事业发展!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>数据结构💥</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>事业发展!$B$1:$O$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>45272</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45271</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45270</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45269</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45268</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45267</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45266</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45265</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45264</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45263</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45262</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45261</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45260</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45259</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>事业发展!$B$7:$O$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-E9AC-4334-A815-938852CAD902}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="651083752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651086992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="651086992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651083752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1417320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4B8562-3229-253D-EA2C-D0B35C3CA5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B0F7A3-F79D-5F8C-2726-1C9382AF8899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AC811F-27F9-8A41-3ACB-6ED11222EB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1417320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1F3EA0-4CF3-F1F3-E8B2-AD7B65264BAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,199 +6009,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="6">
+        <v>45272</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45271</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45270</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45269</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G1" s="6">
+        <v>45267</v>
+      </c>
+      <c r="H1" s="3">
         <v>45266</v>
       </c>
-      <c r="C1" s="3">
+      <c r="I1" s="3">
         <v>45265</v>
       </c>
-      <c r="D1" s="3">
+      <c r="J1" s="3">
         <v>45264</v>
       </c>
-      <c r="E1" s="3">
+      <c r="K1" s="3">
         <v>45263</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -884,68 +6288,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD3505-AB6F-47A4-83BE-C57C66D74A34}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="28.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6">
+        <v>45271</v>
+      </c>
+      <c r="D1" s="6">
+        <v>45270</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45269</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G1" s="6">
+        <v>45267</v>
+      </c>
+      <c r="H1" s="6">
         <v>45266</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
@@ -955,16 +6406,32 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
@@ -972,70 +6439,140 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1047,333 +6584,590 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAD2A0-53C1-4B51-8443-D48BC613435D}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="3">
+        <v>45272</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45271</v>
+      </c>
+      <c r="D1" s="3">
+        <v>45270</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45269</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G1" s="6">
+        <v>45267</v>
+      </c>
+      <c r="H1" s="3">
         <v>45266</v>
       </c>
-      <c r="C1" s="3">
+      <c r="I1" s="3">
         <v>45265</v>
       </c>
-      <c r="D1" s="3">
+      <c r="J1" s="3">
         <v>45264</v>
       </c>
-      <c r="E1" s="3">
+      <c r="K1" s="3">
         <v>45263</v>
       </c>
-      <c r="F1" s="3">
+      <c r="L1" s="3">
         <v>45262</v>
       </c>
-      <c r="G1" s="3">
+      <c r="M1" s="3">
         <v>45261</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="2" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>166.6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>166.5</v>
+      </c>
+      <c r="D2">
+        <v>166.5</v>
+      </c>
+      <c r="E2">
+        <v>167.6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>168.1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>168.6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>168.6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>169.3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>169.1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>169</v>
+      </c>
+      <c r="L2" s="1">
+        <v>169</v>
+      </c>
+      <c r="M2" s="1">
+        <v>170.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5">
+        <v>40</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>100</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+      <c r="M3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>8.5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1">
+        <v>56</v>
+      </c>
+      <c r="L7" s="1">
+        <v>48</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="K8" s="1">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1">
         <v>34</v>
       </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="9" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
+    <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="11" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
+    <row r="12" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+    <row r="13" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE574489-C3D1-490C-B778-5272846A64CB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="6">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7">
+        <v>45272</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45271</v>
+      </c>
+      <c r="D1" s="7">
+        <v>45270</v>
+      </c>
+      <c r="E1" s="7">
+        <v>45269</v>
+      </c>
+      <c r="F1" s="7">
+        <v>45268</v>
+      </c>
+      <c r="G1" s="7">
+        <v>45267</v>
+      </c>
+      <c r="H1" s="6">
         <v>45266</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6">
+      <c r="I1" s="6">
+        <v>45265</v>
+      </c>
+      <c r="J1" s="6">
+        <v>45264</v>
+      </c>
+      <c r="K1" s="6">
+        <v>45263</v>
+      </c>
+      <c r="L1" s="6">
         <v>45262</v>
       </c>
-      <c r="G1" s="6">
+      <c r="M1" s="6">
         <v>45261</v>
       </c>
+      <c r="N1" s="7">
+        <v>45260</v>
+      </c>
+      <c r="O1" s="7">
+        <v>45259</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6">
-        <v>45262</v>
-      </c>
-      <c r="G3" s="6">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1389,7 +7183,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3">
         <v>45266</v>
@@ -1421,23 +7215,23 @@
     </row>
     <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,10 +7245,10 @@
     </row>
     <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -1463,7 +7257,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1481,17 +7275,17 @@
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -1525,7 +7319,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6">
         <v>45266</v>
@@ -1542,13 +7336,13 @@
     </row>
     <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1557,24 +7351,24 @@
     </row>
     <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1601,7 +7395,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B1" s="6">
         <v>45266</v>
@@ -1618,7 +7412,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -1630,33 +7424,33 @@
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>

--- a/feather/微习惯新世界.xlsx
+++ b/feather/微习惯新世界.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1.NoteLibrary\StudyNotes\feather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D8D9B-587D-43CE-BA61-01F4A0F78F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40C055D-704E-43E8-B5FD-D0F37779895A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="77">
   <si>
     <t>打卡表🎯</t>
   </si>
@@ -3027,7 +3027,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>事业发展!$A$7</c15:sqref>
@@ -3104,7 +3104,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3126,7 +3126,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>事业发展!$B$1:$O$1</c15:sqref>
@@ -3183,7 +3183,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>事业发展!$B$7:$O$7</c15:sqref>
@@ -3197,7 +3197,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-E9AC-4334-A815-938852CAD902}"/>
                   </c:ext>
@@ -6009,79 +6009,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
+        <v>45274</v>
+      </c>
+      <c r="C1" s="6">
+        <v>45273</v>
+      </c>
+      <c r="D1" s="6">
         <v>45272</v>
       </c>
-      <c r="C1" s="6">
+      <c r="E1" s="6">
         <v>45271</v>
       </c>
-      <c r="D1" s="6">
+      <c r="F1" s="6">
         <v>45270</v>
       </c>
-      <c r="E1" s="6">
+      <c r="G1" s="6">
         <v>45269</v>
       </c>
-      <c r="F1" s="6">
+      <c r="H1" s="6">
         <v>45268</v>
       </c>
-      <c r="G1" s="6">
+      <c r="I1" s="6">
         <v>45267</v>
       </c>
-      <c r="H1" s="3">
+      <c r="J1" s="3">
         <v>45266</v>
       </c>
-      <c r="I1" s="3">
+      <c r="K1" s="3">
         <v>45265</v>
       </c>
-      <c r="J1" s="3">
+      <c r="L1" s="3">
         <v>45264</v>
       </c>
-      <c r="K1" s="3">
+      <c r="M1" s="3">
         <v>45263</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -6097,10 +6107,10 @@
       <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -6109,12 +6119,18 @@
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
@@ -6130,10 +6146,10 @@
       <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -6142,39 +6158,51 @@
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6184,14 +6212,14 @@
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -6200,12 +6228,18 @@
       <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
@@ -6221,10 +6255,10 @@
       <c r="G7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -6233,12 +6267,18 @@
       <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
@@ -6254,10 +6294,10 @@
       <c r="G8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -6266,12 +6306,18 @@
       <c r="K8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -6279,6 +6325,8 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6910,7 +6958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE574489-C3D1-490C-B778-5272846A64CB}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
